--- a/credit_union_data.xlsx
+++ b/credit_union_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchiu\Downloads\credit_union\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE0607-1C27-45B6-99C4-1DECF04578F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D50A9-C05F-4310-BE75-7E13297AD690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -6374,7 +6374,7 @@
   <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="K231" sqref="K231"/>
+      <selection activeCell="M227" sqref="M227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/credit_union_data.xlsx
+++ b/credit_union_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchiu\Downloads\credit_union\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D50A9-C05F-4310-BE75-7E13297AD690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3510C6A-E936-4373-89DA-2AD5C6973FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6373,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="M227" sqref="M227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6826,90 +6826,90 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>2013</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>331604</v>
-      </c>
-      <c r="F16">
-        <v>23000</v>
-      </c>
-      <c r="G16">
-        <v>354604</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7">
+        <v>590729366</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7">
+        <v>425969</v>
+      </c>
+      <c r="F16" s="7">
+        <v>427041</v>
+      </c>
+      <c r="G16" s="7">
+        <v>853010</v>
+      </c>
+      <c r="H16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>2016</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>961346</v>
-      </c>
-      <c r="F17">
-        <v>38189</v>
-      </c>
-      <c r="G17">
-        <v>999535</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7">
+        <v>590729366</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
+        <v>519524</v>
+      </c>
+      <c r="F17" s="7">
+        <v>41744</v>
+      </c>
+      <c r="G17" s="7">
+        <v>561268</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>2017</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1113902</v>
-      </c>
-      <c r="F18">
-        <v>71547</v>
-      </c>
-      <c r="G18">
-        <v>1185449</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
+        <v>590729366</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7">
+        <v>515075</v>
+      </c>
+      <c r="F18" s="7">
+        <v>80004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>595079</v>
+      </c>
+      <c r="H18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -6920,19 +6920,19 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>1176291</v>
+        <v>331604</v>
       </c>
       <c r="F19">
-        <v>82552</v>
+        <v>23000</v>
       </c>
       <c r="G19">
-        <v>1258843</v>
+        <v>354604</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -6949,22 +6949,22 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1220741</v>
+        <v>961346</v>
       </c>
       <c r="F20">
-        <v>126046</v>
+        <v>38189</v>
       </c>
       <c r="G20">
-        <v>1346787</v>
+        <v>999535</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -6978,25 +6978,25 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1353091</v>
+        <v>1113902</v>
       </c>
       <c r="F21">
-        <v>161865</v>
+        <v>71547</v>
       </c>
       <c r="G21">
-        <v>1514956</v>
+        <v>1185449</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -7007,19 +7007,19 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1390466</v>
+        <v>1176291</v>
       </c>
       <c r="F22">
-        <v>189175</v>
+        <v>82552</v>
       </c>
       <c r="G22">
-        <v>1579641</v>
+        <v>1258843</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -7036,25 +7036,25 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23">
-        <v>2436611</v>
+        <v>1220741</v>
       </c>
       <c r="F23">
-        <v>45969</v>
+        <v>126046</v>
       </c>
       <c r="G23">
-        <v>2482580</v>
+        <v>1346787</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -7065,22 +7065,22 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>748057</v>
+        <v>1353091</v>
       </c>
       <c r="F24">
-        <v>261818</v>
+        <v>161865</v>
       </c>
       <c r="G24">
-        <v>1009875</v>
+        <v>1514956</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -7088,25 +7088,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>294640</v>
+        <v>1390466</v>
       </c>
       <c r="F25">
-        <v>45140</v>
+        <v>189175</v>
       </c>
       <c r="G25">
-        <v>339780</v>
+        <v>1579641</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -7117,25 +7117,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>309891</v>
+        <v>2436611</v>
       </c>
       <c r="F26">
-        <v>48291</v>
+        <v>45969</v>
       </c>
       <c r="G26">
-        <v>358182</v>
+        <v>2482580</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -7146,28 +7146,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27">
-        <v>213593</v>
+        <v>748057</v>
       </c>
       <c r="F27">
-        <v>41335</v>
+        <v>261818</v>
       </c>
       <c r="G27">
-        <v>254928</v>
+        <v>1009875</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -7181,22 +7181,22 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28">
-        <v>147012</v>
+        <v>294640</v>
       </c>
       <c r="F28">
-        <v>22481</v>
+        <v>45140</v>
       </c>
       <c r="G28">
-        <v>169493</v>
+        <v>339780</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -7210,19 +7210,19 @@
         <v>41</v>
       </c>
       <c r="C29">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>224929</v>
+        <v>309891</v>
       </c>
       <c r="F29">
-        <v>35430</v>
+        <v>48291</v>
       </c>
       <c r="G29">
-        <v>260359</v>
+        <v>358182</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -7239,19 +7239,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>246592</v>
+        <v>213593</v>
       </c>
       <c r="F30">
-        <v>67225</v>
+        <v>41335</v>
       </c>
       <c r="G30">
-        <v>313817</v>
+        <v>254928</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -7268,22 +7268,22 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
       </c>
       <c r="E31">
-        <v>428734</v>
+        <v>147012</v>
       </c>
       <c r="F31">
-        <v>92727</v>
+        <v>22481</v>
       </c>
       <c r="G31">
-        <v>521461</v>
+        <v>169493</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -7297,19 +7297,19 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32">
-        <v>436507</v>
+        <v>224929</v>
       </c>
       <c r="F32">
-        <v>100660</v>
+        <v>35430</v>
       </c>
       <c r="G32">
-        <v>537167</v>
+        <v>260359</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -7326,25 +7326,25 @@
         <v>41</v>
       </c>
       <c r="C33">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
       </c>
       <c r="E33">
-        <v>436807</v>
+        <v>246592</v>
       </c>
       <c r="F33">
-        <v>156632</v>
+        <v>67225</v>
       </c>
       <c r="G33">
-        <v>593439</v>
+        <v>313817</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -7355,19 +7355,19 @@
         <v>41</v>
       </c>
       <c r="C34">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34">
-        <v>517300</v>
+        <v>428734</v>
       </c>
       <c r="F34">
-        <v>163528</v>
+        <v>92727</v>
       </c>
       <c r="G34">
-        <v>680828</v>
+        <v>521461</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -7384,77 +7384,77 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35">
-        <v>593911</v>
+        <v>436507</v>
       </c>
       <c r="F35">
-        <v>177296</v>
+        <v>100660</v>
       </c>
       <c r="G35">
-        <v>771207</v>
+        <v>537167</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>277294</v>
+        <v>436807</v>
       </c>
       <c r="F36">
-        <v>37484</v>
+        <v>156632</v>
       </c>
       <c r="G36">
-        <v>314778</v>
+        <v>593439</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37">
-        <v>299981</v>
+        <v>517300</v>
       </c>
       <c r="F37">
-        <v>77828</v>
+        <v>163528</v>
       </c>
       <c r="G37">
-        <v>377809</v>
+        <v>680828</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -7465,31 +7465,31 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>334732</v>
+        <v>593911</v>
       </c>
       <c r="F38">
-        <v>74350</v>
+        <v>177296</v>
       </c>
       <c r="G38">
-        <v>409082</v>
+        <v>771207</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -7500,25 +7500,25 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
       </c>
       <c r="E39">
-        <v>323553</v>
+        <v>277294</v>
       </c>
       <c r="F39">
-        <v>58783</v>
+        <v>37484</v>
       </c>
       <c r="G39">
-        <v>382336</v>
+        <v>314778</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -7529,19 +7529,19 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40">
-        <v>375895</v>
+        <v>299981</v>
       </c>
       <c r="F40">
-        <v>56765</v>
+        <v>77828</v>
       </c>
       <c r="G40">
-        <v>432660</v>
+        <v>377809</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -7558,19 +7558,19 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
       </c>
       <c r="E41">
-        <v>386647</v>
+        <v>334732</v>
       </c>
       <c r="F41">
-        <v>37330</v>
+        <v>74350</v>
       </c>
       <c r="G41">
-        <v>423977</v>
+        <v>409082</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -7587,25 +7587,25 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
       </c>
       <c r="E42">
-        <v>397237</v>
+        <v>323553</v>
       </c>
       <c r="F42">
-        <v>39639</v>
+        <v>58783</v>
       </c>
       <c r="G42">
-        <v>436876</v>
+        <v>382336</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -7616,19 +7616,19 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43">
-        <v>376990</v>
+        <v>375895</v>
       </c>
       <c r="F43">
-        <v>43181</v>
+        <v>56765</v>
       </c>
       <c r="G43">
-        <v>420171</v>
+        <v>432660</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -7645,19 +7645,19 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44">
-        <v>432264</v>
+        <v>386647</v>
       </c>
       <c r="F44">
-        <v>45009</v>
+        <v>37330</v>
       </c>
       <c r="G44">
-        <v>477273</v>
+        <v>423977</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -7674,25 +7674,25 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
       </c>
       <c r="E45">
-        <v>474234</v>
+        <v>397237</v>
       </c>
       <c r="F45">
-        <v>65719</v>
+        <v>39639</v>
       </c>
       <c r="G45">
-        <v>539953</v>
+        <v>436876</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -7703,19 +7703,19 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
       </c>
       <c r="E46">
-        <v>479703</v>
+        <v>376990</v>
       </c>
       <c r="F46">
-        <v>108898</v>
+        <v>43181</v>
       </c>
       <c r="G46">
-        <v>588601</v>
+        <v>420171</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -7726,25 +7726,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>271390</v>
+        <v>432264</v>
       </c>
       <c r="F47">
-        <v>15613</v>
+        <v>45009</v>
       </c>
       <c r="G47">
-        <v>287003</v>
+        <v>477273</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -7755,60 +7755,60 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>206922</v>
+        <v>474234</v>
       </c>
       <c r="F48">
-        <v>51503</v>
+        <v>65719</v>
       </c>
       <c r="G48">
-        <v>258425</v>
+        <v>539953</v>
       </c>
       <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>211257</v>
+        <v>479703</v>
       </c>
       <c r="F49">
-        <v>30121</v>
+        <v>108898</v>
       </c>
       <c r="G49">
-        <v>241378</v>
+        <v>588601</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -7819,25 +7819,25 @@
         <v>47</v>
       </c>
       <c r="C50">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>228004</v>
+        <v>271390</v>
       </c>
       <c r="F50">
-        <v>21748</v>
+        <v>15613</v>
       </c>
       <c r="G50">
-        <v>249752</v>
+        <v>287003</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -7848,22 +7848,22 @@
         <v>47</v>
       </c>
       <c r="C51">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
       </c>
       <c r="E51">
-        <v>254820</v>
+        <v>206922</v>
       </c>
       <c r="F51">
-        <v>27306</v>
+        <v>51503</v>
       </c>
       <c r="G51">
-        <v>282126</v>
+        <v>258425</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -7877,77 +7877,77 @@
         <v>47</v>
       </c>
       <c r="C52">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
       </c>
       <c r="E52">
-        <v>291084</v>
+        <v>211257</v>
       </c>
       <c r="F52">
-        <v>34810</v>
+        <v>30121</v>
       </c>
       <c r="G52">
-        <v>325894</v>
+        <v>241378</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="3">
-        <v>350978599</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="3">
-        <v>148892</v>
-      </c>
-      <c r="F53" s="3">
-        <v>73601</v>
-      </c>
-      <c r="G53" s="3">
-        <v>222493</v>
-      </c>
-      <c r="H53" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3" t="b">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>2021</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53">
+        <v>228004</v>
+      </c>
+      <c r="F53">
+        <v>21748</v>
+      </c>
+      <c r="G53">
+        <v>249752</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E54">
-        <v>1743501</v>
+        <v>254820</v>
       </c>
       <c r="F54">
-        <v>427351</v>
+        <v>27306</v>
       </c>
       <c r="G54">
-        <v>2170852</v>
+        <v>282126</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -7958,25 +7958,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E55">
-        <v>2674529</v>
+        <v>291084</v>
       </c>
       <c r="F55">
-        <v>478564</v>
+        <v>34810</v>
       </c>
       <c r="G55">
-        <v>3153093</v>
+        <v>325894</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -7986,60 +7986,60 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56">
-        <v>2019</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56">
-        <v>2160007</v>
-      </c>
-      <c r="F56">
-        <v>716697</v>
-      </c>
-      <c r="G56">
-        <v>2876704</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
+      <c r="A56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3">
+        <v>350978599</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="3">
+        <v>148892</v>
+      </c>
+      <c r="F56" s="3">
+        <v>73601</v>
+      </c>
+      <c r="G56" s="3">
+        <v>222493</v>
+      </c>
+      <c r="H56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>2020</v>
-      </c>
-      <c r="D57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57">
-        <v>2467422</v>
-      </c>
-      <c r="F57">
-        <v>574637</v>
-      </c>
-      <c r="G57">
-        <v>3042059</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
+      <c r="A57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="7">
+        <v>350978599</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2016</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="7">
+        <v>148892</v>
+      </c>
+      <c r="F57" s="7">
+        <v>73601</v>
+      </c>
+      <c r="G57" s="7">
+        <v>222493</v>
+      </c>
+      <c r="H57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8051,19 +8051,19 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58">
-        <v>2813709</v>
+        <v>1743501</v>
       </c>
       <c r="F58">
-        <v>572722</v>
+        <v>427351</v>
       </c>
       <c r="G58">
-        <v>3386431</v>
+        <v>2170852</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -8080,19 +8080,19 @@
         <v>50</v>
       </c>
       <c r="C59">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
       </c>
       <c r="E59">
-        <v>4154195</v>
+        <v>2674529</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>478564</v>
       </c>
       <c r="G59">
-        <v>4154195</v>
+        <v>3153093</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -8109,48 +8109,48 @@
         <v>50</v>
       </c>
       <c r="C60">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60">
-        <v>1262524</v>
+        <v>2160007</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>716697</v>
       </c>
       <c r="G60">
-        <v>1262524</v>
+        <v>2876704</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E61">
-        <v>1414893</v>
+        <v>2467422</v>
       </c>
       <c r="F61">
-        <v>30155</v>
+        <v>574637</v>
       </c>
       <c r="G61">
-        <v>1445048</v>
+        <v>3042059</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -8161,25 +8161,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E62">
-        <v>959450</v>
+        <v>2813709</v>
       </c>
       <c r="F62">
-        <v>28268</v>
+        <v>572722</v>
       </c>
       <c r="G62">
-        <v>987718</v>
+        <v>3386431</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -8190,25 +8190,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E63">
-        <v>1077538</v>
+        <v>4154195</v>
       </c>
       <c r="F63">
-        <v>33352</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1110890</v>
+        <v>4154195</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -8219,31 +8219,31 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C64">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E64">
-        <v>1103647</v>
+        <v>1262524</v>
       </c>
       <c r="F64">
-        <v>1213657</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>2317304</v>
+        <v>1262524</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -8254,19 +8254,19 @@
         <v>53</v>
       </c>
       <c r="C65">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65">
-        <v>1686957</v>
+        <v>1414893</v>
       </c>
       <c r="F65">
-        <v>652203</v>
+        <v>30155</v>
       </c>
       <c r="G65">
-        <v>2339160</v>
+        <v>1445048</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -8283,19 +8283,19 @@
         <v>53</v>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D66" t="s">
         <v>54</v>
       </c>
       <c r="E66">
-        <v>1200849</v>
+        <v>959450</v>
       </c>
       <c r="F66">
-        <v>1136594</v>
+        <v>28268</v>
       </c>
       <c r="G66">
-        <v>2337443</v>
+        <v>987718</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -8312,25 +8312,25 @@
         <v>53</v>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D67" t="s">
         <v>54</v>
       </c>
       <c r="E67">
-        <v>1390303</v>
+        <v>1077538</v>
       </c>
       <c r="F67">
-        <v>1037323</v>
+        <v>33352</v>
       </c>
       <c r="G67">
-        <v>2427626</v>
+        <v>1110890</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -8341,19 +8341,19 @@
         <v>53</v>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D68" t="s">
         <v>54</v>
       </c>
       <c r="E68">
-        <v>1425869</v>
+        <v>1103647</v>
       </c>
       <c r="F68">
-        <v>1815315</v>
+        <v>1213657</v>
       </c>
       <c r="G68">
-        <v>3241184</v>
+        <v>2317304</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -8370,19 +8370,19 @@
         <v>53</v>
       </c>
       <c r="C69">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
         <v>54</v>
       </c>
       <c r="E69">
-        <v>8750494</v>
+        <v>1686957</v>
       </c>
       <c r="F69">
-        <v>2205884</v>
+        <v>652203</v>
       </c>
       <c r="G69">
-        <v>10956378</v>
+        <v>2339160</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>53</v>
       </c>
       <c r="C70">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
       <c r="E70">
-        <v>2409115</v>
+        <v>1200849</v>
       </c>
       <c r="F70">
-        <v>2377118</v>
+        <v>1136594</v>
       </c>
       <c r="G70">
-        <v>4786233</v>
+        <v>2337443</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -8428,48 +8428,48 @@
         <v>53</v>
       </c>
       <c r="C71">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71">
-        <v>4142737</v>
+        <v>1390303</v>
       </c>
       <c r="F71">
-        <v>1113978</v>
+        <v>1037323</v>
       </c>
       <c r="G71">
-        <v>5256715</v>
+        <v>2427626</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E72">
-        <v>301255</v>
+        <v>1425869</v>
       </c>
       <c r="F72">
-        <v>40437</v>
+        <v>1815315</v>
       </c>
       <c r="G72">
-        <v>341692</v>
+        <v>3241184</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -8480,83 +8480,83 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>323909</v>
+        <v>8750494</v>
       </c>
       <c r="F73">
-        <v>45003</v>
+        <v>2205884</v>
       </c>
       <c r="G73">
-        <v>368912</v>
+        <v>10956378</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E74">
-        <v>375327</v>
+        <v>2409115</v>
       </c>
       <c r="F74">
-        <v>51535</v>
+        <v>2377118</v>
       </c>
       <c r="G74">
-        <v>426862</v>
+        <v>4786233</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C75">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E75">
-        <v>371349</v>
+        <v>4142737</v>
       </c>
       <c r="F75">
-        <v>39845</v>
+        <v>1113978</v>
       </c>
       <c r="G75">
-        <v>411194</v>
+        <v>5256715</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -8573,19 +8573,19 @@
         <v>55</v>
       </c>
       <c r="C76">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D76" t="s">
         <v>56</v>
       </c>
       <c r="E76">
-        <v>400149</v>
+        <v>301255</v>
       </c>
       <c r="F76">
-        <v>42762</v>
+        <v>40437</v>
       </c>
       <c r="G76">
-        <v>442911</v>
+        <v>341692</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -8602,25 +8602,25 @@
         <v>55</v>
       </c>
       <c r="C77">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D77" t="s">
         <v>56</v>
       </c>
       <c r="E77">
-        <v>416720</v>
+        <v>323909</v>
       </c>
       <c r="F77">
-        <v>43413</v>
+        <v>45003</v>
       </c>
       <c r="G77">
-        <v>460133</v>
+        <v>368912</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -8631,19 +8631,19 @@
         <v>55</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D78" t="s">
         <v>56</v>
       </c>
       <c r="E78">
-        <v>440144</v>
+        <v>375327</v>
       </c>
       <c r="F78">
-        <v>49544</v>
+        <v>51535</v>
       </c>
       <c r="G78">
-        <v>489688</v>
+        <v>426862</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -8660,25 +8660,25 @@
         <v>55</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D79" t="s">
         <v>56</v>
       </c>
       <c r="E79">
-        <v>492601</v>
+        <v>371349</v>
       </c>
       <c r="F79">
-        <v>45538</v>
+        <v>39845</v>
       </c>
       <c r="G79">
-        <v>538139</v>
+        <v>411194</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -8689,19 +8689,19 @@
         <v>55</v>
       </c>
       <c r="C80">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="s">
         <v>56</v>
       </c>
       <c r="E80">
-        <v>539919</v>
+        <v>400149</v>
       </c>
       <c r="F80">
-        <v>47309</v>
+        <v>42762</v>
       </c>
       <c r="G80">
-        <v>587228</v>
+        <v>442911</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -8718,19 +8718,19 @@
         <v>55</v>
       </c>
       <c r="C81">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D81" t="s">
         <v>56</v>
       </c>
       <c r="E81">
-        <v>581104</v>
+        <v>416720</v>
       </c>
       <c r="F81">
-        <v>89486</v>
+        <v>43413</v>
       </c>
       <c r="G81">
-        <v>670590</v>
+        <v>460133</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -8747,19 +8747,19 @@
         <v>55</v>
       </c>
       <c r="C82">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D82" t="s">
         <v>56</v>
       </c>
       <c r="E82">
-        <v>661240</v>
+        <v>440144</v>
       </c>
       <c r="F82">
-        <v>32600</v>
+        <v>49544</v>
       </c>
       <c r="G82">
-        <v>693840</v>
+        <v>489688</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -8769,84 +8769,84 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="3">
-        <v>590687423</v>
-      </c>
-      <c r="C83" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83">
+        <v>2020</v>
+      </c>
+      <c r="D83" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="3">
-        <v>285375</v>
-      </c>
-      <c r="F83" s="3">
-        <v>35284</v>
-      </c>
-      <c r="G83" s="3">
-        <v>320659</v>
-      </c>
-      <c r="H83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="b">
-        <v>0</v>
+      <c r="E83">
+        <v>492601</v>
+      </c>
+      <c r="F83">
+        <v>45538</v>
+      </c>
+      <c r="G83">
+        <v>538139</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="3">
-        <v>590687423</v>
-      </c>
-      <c r="C84" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84">
+        <v>2021</v>
+      </c>
+      <c r="D84" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="3">
-        <v>348517</v>
-      </c>
-      <c r="F84" s="3">
-        <v>38207</v>
-      </c>
-      <c r="G84" s="3">
-        <v>386724</v>
-      </c>
-      <c r="H84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3" t="b">
+      <c r="E84">
+        <v>539919</v>
+      </c>
+      <c r="F84">
+        <v>47309</v>
+      </c>
+      <c r="G84">
+        <v>587228</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E85">
-        <v>227187</v>
+        <v>581104</v>
       </c>
       <c r="F85">
-        <v>117678</v>
+        <v>89486</v>
       </c>
       <c r="G85">
-        <v>344865</v>
+        <v>670590</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -8857,146 +8857,146 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>301816</v>
+        <v>661240</v>
       </c>
       <c r="F86">
-        <v>208386</v>
+        <v>32600</v>
       </c>
       <c r="G86">
-        <v>510202</v>
+        <v>693840</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87">
-        <v>2015</v>
-      </c>
-      <c r="D87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87">
-        <v>377194</v>
-      </c>
-      <c r="F87">
-        <v>213455</v>
-      </c>
-      <c r="G87">
-        <v>590649</v>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
+      <c r="A87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="3">
+        <v>590687423</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E87" s="3">
+        <v>285375</v>
+      </c>
+      <c r="F87" s="3">
+        <v>35284</v>
+      </c>
+      <c r="G87" s="3">
+        <v>320659</v>
+      </c>
+      <c r="H87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88">
-        <v>2016</v>
-      </c>
-      <c r="D88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88">
-        <v>375104</v>
-      </c>
-      <c r="F88">
-        <v>211077</v>
-      </c>
-      <c r="G88">
-        <v>586181</v>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="b">
+      <c r="A88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="3">
+        <v>590687423</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="3">
+        <v>348517</v>
+      </c>
+      <c r="F88" s="3">
+        <v>38207</v>
+      </c>
+      <c r="G88" s="3">
+        <v>386724</v>
+      </c>
+      <c r="H88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89">
-        <v>2017</v>
-      </c>
-      <c r="D89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89">
-        <v>1235199</v>
-      </c>
-      <c r="F89">
-        <v>26882</v>
-      </c>
-      <c r="G89">
-        <v>1262081</v>
-      </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="b">
+      <c r="A89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="7">
+        <v>590687423</v>
+      </c>
+      <c r="C89" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="7">
+        <v>285375</v>
+      </c>
+      <c r="F89" s="7">
+        <v>35284</v>
+      </c>
+      <c r="G89" s="7">
+        <v>320659</v>
+      </c>
+      <c r="H89" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90">
-        <v>2018</v>
-      </c>
-      <c r="D90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90">
-        <v>453173</v>
-      </c>
-      <c r="F90">
-        <v>29345</v>
-      </c>
-      <c r="G90">
-        <v>482518</v>
-      </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
+      <c r="A90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="7">
+        <v>590687423</v>
+      </c>
+      <c r="C90" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="7">
+        <v>348517</v>
+      </c>
+      <c r="F90" s="7">
+        <v>38207</v>
+      </c>
+      <c r="G90" s="7">
+        <v>386724</v>
+      </c>
+      <c r="H90" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9008,19 +9008,19 @@
         <v>57</v>
       </c>
       <c r="C91">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D91" t="s">
         <v>58</v>
       </c>
       <c r="E91">
-        <v>511280</v>
+        <v>227187</v>
       </c>
       <c r="F91">
-        <v>35719</v>
+        <v>117678</v>
       </c>
       <c r="G91">
-        <v>546999</v>
+        <v>344865</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -9037,25 +9037,25 @@
         <v>57</v>
       </c>
       <c r="C92">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D92" t="s">
         <v>58</v>
       </c>
       <c r="E92">
-        <v>575800</v>
+        <v>301816</v>
       </c>
       <c r="F92">
-        <v>33782</v>
+        <v>208386</v>
       </c>
       <c r="G92">
-        <v>609582</v>
+        <v>510202</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -9066,25 +9066,25 @@
         <v>57</v>
       </c>
       <c r="C93">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D93" t="s">
         <v>58</v>
       </c>
       <c r="E93">
-        <v>558209</v>
+        <v>377194</v>
       </c>
       <c r="F93">
-        <v>38754</v>
+        <v>213455</v>
       </c>
       <c r="G93">
-        <v>596963</v>
+        <v>590649</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -9095,19 +9095,19 @@
         <v>57</v>
       </c>
       <c r="C94">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D94" t="s">
         <v>58</v>
       </c>
       <c r="E94">
-        <v>664484</v>
+        <v>375104</v>
       </c>
       <c r="F94">
-        <v>34695</v>
+        <v>211077</v>
       </c>
       <c r="G94">
-        <v>699179</v>
+        <v>586181</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -9124,19 +9124,19 @@
         <v>57</v>
       </c>
       <c r="C95">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D95" t="s">
         <v>58</v>
       </c>
       <c r="E95">
-        <v>690948</v>
+        <v>1235199</v>
       </c>
       <c r="F95">
-        <v>41748</v>
+        <v>26882</v>
       </c>
       <c r="G95">
-        <v>732696</v>
+        <v>1262081</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -9146,84 +9146,84 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="3">
-        <v>580960142</v>
-      </c>
-      <c r="C96" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96">
+        <v>2018</v>
+      </c>
+      <c r="D96" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="3">
-        <v>232744</v>
-      </c>
-      <c r="F96" s="3">
-        <v>22325</v>
-      </c>
-      <c r="G96" s="3">
-        <v>255069</v>
-      </c>
-      <c r="H96" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3" t="b">
+      <c r="E96">
+        <v>453173</v>
+      </c>
+      <c r="F96">
+        <v>29345</v>
+      </c>
+      <c r="G96">
+        <v>482518</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="3">
-        <v>580960142</v>
-      </c>
-      <c r="C97" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97">
+        <v>2019</v>
+      </c>
+      <c r="D97" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="3">
-        <v>495000</v>
-      </c>
-      <c r="F97" s="3">
-        <v>72723</v>
-      </c>
-      <c r="G97" s="3">
-        <v>567723</v>
-      </c>
-      <c r="H97" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="3" t="b">
+      <c r="E97">
+        <v>511280</v>
+      </c>
+      <c r="F97">
+        <v>35719</v>
+      </c>
+      <c r="G97">
+        <v>546999</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C98">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E98">
-        <v>536338</v>
+        <v>575800</v>
       </c>
       <c r="F98">
-        <v>389940</v>
+        <v>33782</v>
       </c>
       <c r="G98">
-        <v>926278</v>
+        <v>609582</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -9234,25 +9234,25 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C99">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E99">
-        <v>561465</v>
+        <v>558209</v>
       </c>
       <c r="F99">
-        <v>377959</v>
+        <v>38754</v>
       </c>
       <c r="G99">
-        <v>939424</v>
+        <v>596963</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -9263,25 +9263,25 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C100">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>391055</v>
+        <v>664484</v>
       </c>
       <c r="F100">
-        <v>424196</v>
+        <v>34695</v>
       </c>
       <c r="G100">
-        <v>815251</v>
+        <v>699179</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -9292,25 +9292,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C101">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E101">
-        <v>642972</v>
+        <v>690948</v>
       </c>
       <c r="F101">
-        <v>522374</v>
+        <v>41748</v>
       </c>
       <c r="G101">
-        <v>1165346</v>
+        <v>732696</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -9320,118 +9320,118 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102">
-        <v>2017</v>
-      </c>
-      <c r="D102" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102">
-        <v>721005</v>
-      </c>
-      <c r="F102">
-        <v>688627</v>
-      </c>
-      <c r="G102">
-        <v>1409632</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
+      <c r="A102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3">
+        <v>580960142</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="3">
+        <v>232744</v>
+      </c>
+      <c r="F102" s="3">
+        <v>22325</v>
+      </c>
+      <c r="G102" s="3">
+        <v>255069</v>
+      </c>
+      <c r="H102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103">
-        <v>2018</v>
-      </c>
-      <c r="D103" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103">
-        <v>779256</v>
-      </c>
-      <c r="F103">
-        <v>434581</v>
-      </c>
-      <c r="G103">
-        <v>1213837</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
+      <c r="A103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="3">
+        <v>580960142</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F103" s="3">
+        <v>72723</v>
+      </c>
+      <c r="G103" s="3">
+        <v>567723</v>
+      </c>
+      <c r="H103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104">
-        <v>2019</v>
-      </c>
-      <c r="D104" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104">
-        <v>1353284</v>
-      </c>
-      <c r="F104">
-        <v>365783</v>
-      </c>
-      <c r="G104">
-        <v>1719067</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" t="b">
+      <c r="A104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="7">
+        <v>580960142</v>
+      </c>
+      <c r="C104" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="7">
+        <v>232744</v>
+      </c>
+      <c r="F104" s="7">
+        <v>22325</v>
+      </c>
+      <c r="G104" s="7">
+        <v>255069</v>
+      </c>
+      <c r="H104" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105">
-        <v>2020</v>
-      </c>
-      <c r="D105" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105">
-        <v>1915644</v>
-      </c>
-      <c r="F105">
-        <v>46285</v>
-      </c>
-      <c r="G105">
-        <v>1961929</v>
-      </c>
-      <c r="H105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" t="b">
+      <c r="A105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="7">
+        <v>580960142</v>
+      </c>
+      <c r="C105" s="7">
+        <v>2012</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="7">
+        <v>495000</v>
+      </c>
+      <c r="F105" s="7">
+        <v>72723</v>
+      </c>
+      <c r="G105" s="7">
+        <v>567723</v>
+      </c>
+      <c r="H105" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9443,19 +9443,19 @@
         <v>59</v>
       </c>
       <c r="C106">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E106">
-        <v>953426</v>
+        <v>536338</v>
       </c>
       <c r="F106">
-        <v>45955</v>
+        <v>389940</v>
       </c>
       <c r="G106">
-        <v>999381</v>
+        <v>926278</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -9472,25 +9472,25 @@
         <v>59</v>
       </c>
       <c r="C107">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="D107" t="s">
         <v>60</v>
       </c>
       <c r="E107">
-        <v>2062826</v>
+        <v>561465</v>
       </c>
       <c r="F107">
-        <v>162053</v>
+        <v>377959</v>
       </c>
       <c r="G107">
-        <v>2224879</v>
+        <v>939424</v>
       </c>
       <c r="H107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -9501,22 +9501,22 @@
         <v>59</v>
       </c>
       <c r="C108">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E108">
-        <v>1381588</v>
+        <v>391055</v>
       </c>
       <c r="F108">
-        <v>123832</v>
+        <v>424196</v>
       </c>
       <c r="G108">
-        <v>1505420</v>
+        <v>815251</v>
       </c>
       <c r="H108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -9524,25 +9524,25 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C109">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D109" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E109">
-        <v>681905</v>
+        <v>642972</v>
       </c>
       <c r="F109">
-        <v>60891</v>
+        <v>522374</v>
       </c>
       <c r="G109">
-        <v>742796</v>
+        <v>1165346</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -9553,25 +9553,25 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C110">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E110">
-        <v>774110</v>
+        <v>721005</v>
       </c>
       <c r="F110">
-        <v>31842</v>
+        <v>688627</v>
       </c>
       <c r="G110">
-        <v>805952</v>
+        <v>1409632</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -9582,54 +9582,54 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C111">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D111" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E111">
-        <v>820595</v>
+        <v>779256</v>
       </c>
       <c r="F111">
-        <v>32597</v>
+        <v>434581</v>
       </c>
       <c r="G111">
-        <v>853192</v>
+        <v>1213837</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C112">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D112" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E112">
-        <v>926185</v>
+        <v>1353284</v>
       </c>
       <c r="F112">
-        <v>32784</v>
+        <v>365783</v>
       </c>
       <c r="G112">
-        <v>958969</v>
+        <v>1719067</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -9640,28 +9640,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C113">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E113">
-        <v>1025588</v>
+        <v>1915644</v>
       </c>
       <c r="F113">
-        <v>30428</v>
+        <v>46285</v>
       </c>
       <c r="G113">
-        <v>1056016</v>
+        <v>1961929</v>
       </c>
       <c r="H113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -9669,25 +9669,25 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C114">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E114">
-        <v>1211188</v>
+        <v>953426</v>
       </c>
       <c r="F114">
-        <v>36892</v>
+        <v>45955</v>
       </c>
       <c r="G114">
-        <v>1248080</v>
+        <v>999381</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -9698,28 +9698,28 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C115">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E115">
-        <v>1104337</v>
+        <v>2062826</v>
       </c>
       <c r="F115">
-        <v>39147</v>
+        <v>162053</v>
       </c>
       <c r="G115">
-        <v>1143484</v>
+        <v>2224879</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -9727,28 +9727,28 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C116">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D116" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E116">
-        <v>1310141</v>
+        <v>1381588</v>
       </c>
       <c r="F116">
-        <v>54670</v>
+        <v>123832</v>
       </c>
       <c r="G116">
-        <v>1364811</v>
+        <v>1505420</v>
       </c>
       <c r="H116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -9762,77 +9762,77 @@
         <v>63</v>
       </c>
       <c r="C117">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D117" t="s">
         <v>64</v>
       </c>
       <c r="E117">
-        <v>2038821</v>
+        <v>681905</v>
       </c>
       <c r="F117">
-        <v>57917</v>
+        <v>60891</v>
       </c>
       <c r="G117">
-        <v>2096738</v>
+        <v>742796</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>62</v>
       </c>
-      <c r="B118" s="3">
-        <v>420804594</v>
-      </c>
-      <c r="C118" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="3">
-        <v>1232889</v>
-      </c>
-      <c r="F118" s="3">
-        <v>38027</v>
-      </c>
-      <c r="G118" s="3">
-        <v>1270916</v>
-      </c>
-      <c r="H118" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="3" t="b">
+      <c r="E118">
+        <v>774110</v>
+      </c>
+      <c r="F118">
+        <v>31842</v>
+      </c>
+      <c r="G118">
+        <v>805952</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C119">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D119" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E119">
-        <v>467191</v>
+        <v>820595</v>
       </c>
       <c r="F119">
-        <v>39635</v>
+        <v>32597</v>
       </c>
       <c r="G119">
-        <v>506826</v>
+        <v>853192</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -9843,25 +9843,25 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C120">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E120">
-        <v>411393</v>
+        <v>926185</v>
       </c>
       <c r="F120">
-        <v>47485</v>
+        <v>32784</v>
       </c>
       <c r="G120">
-        <v>458878</v>
+        <v>958969</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -9872,25 +9872,25 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C121">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E121">
-        <v>1265956</v>
+        <v>1025588</v>
       </c>
       <c r="F121">
-        <v>48389</v>
+        <v>30428</v>
       </c>
       <c r="G121">
-        <v>1314345</v>
+        <v>1056016</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -9901,28 +9901,28 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C122">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E122">
-        <v>977870</v>
+        <v>1211188</v>
       </c>
       <c r="F122">
-        <v>46838</v>
+        <v>36892</v>
       </c>
       <c r="G122">
-        <v>1024708</v>
+        <v>1248080</v>
       </c>
       <c r="H122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -9930,54 +9930,54 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C123">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E123">
-        <v>557598</v>
+        <v>1104337</v>
       </c>
       <c r="F123">
-        <v>274704</v>
+        <v>39147</v>
       </c>
       <c r="G123">
-        <v>832302</v>
+        <v>1143484</v>
       </c>
       <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
         <v>1</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C124">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E124">
-        <v>618166</v>
+        <v>1310141</v>
       </c>
       <c r="F124">
-        <v>348689</v>
+        <v>54670</v>
       </c>
       <c r="G124">
-        <v>966855</v>
+        <v>1364811</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -9988,88 +9988,88 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125">
+        <v>2022</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125">
+        <v>2038821</v>
+      </c>
+      <c r="F125">
+        <v>57917</v>
+      </c>
+      <c r="G125">
+        <v>2096738</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="3">
+        <v>420804594</v>
+      </c>
+      <c r="C126" s="3">
         <v>2019</v>
       </c>
-      <c r="D125" t="s">
-        <v>66</v>
-      </c>
-      <c r="E125">
-        <v>1133947</v>
-      </c>
-      <c r="F125">
-        <v>510895</v>
-      </c>
-      <c r="G125">
-        <v>1644842</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>18</v>
-      </c>
-      <c r="B126" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126">
-        <v>2020</v>
-      </c>
-      <c r="D126" t="s">
-        <v>66</v>
-      </c>
-      <c r="E126">
-        <v>1019097</v>
-      </c>
-      <c r="F126">
-        <v>51715</v>
-      </c>
-      <c r="G126">
-        <v>1070812</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="b">
+      <c r="D126" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1232889</v>
+      </c>
+      <c r="F126" s="3">
+        <v>38027</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1270916</v>
+      </c>
+      <c r="H126" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127">
-        <v>2021</v>
-      </c>
-      <c r="D127" t="s">
-        <v>66</v>
-      </c>
-      <c r="E127">
-        <v>1376021</v>
-      </c>
-      <c r="F127">
-        <v>55215</v>
-      </c>
-      <c r="G127">
-        <v>1431236</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="b">
+      <c r="A127" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="7">
+        <v>420804594</v>
+      </c>
+      <c r="C127" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="7">
+        <v>1232889</v>
+      </c>
+      <c r="F127" s="7">
+        <v>38027</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1270916</v>
+      </c>
+      <c r="H127" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10081,19 +10081,19 @@
         <v>65</v>
       </c>
       <c r="C128">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D128" t="s">
         <v>66</v>
       </c>
       <c r="E128">
-        <v>1437587</v>
+        <v>467191</v>
       </c>
       <c r="F128">
-        <v>50176</v>
+        <v>39635</v>
       </c>
       <c r="G128">
-        <v>1487763</v>
+        <v>506826</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -10110,19 +10110,19 @@
         <v>65</v>
       </c>
       <c r="C129">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D129" t="s">
         <v>66</v>
       </c>
       <c r="E129">
-        <v>1862500</v>
+        <v>411393</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>47485</v>
       </c>
       <c r="G129">
-        <v>1862500</v>
+        <v>458878</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -10133,25 +10133,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C130">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D130" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E130">
-        <v>2329598</v>
+        <v>1265956</v>
       </c>
       <c r="F130">
-        <v>64937</v>
+        <v>48389</v>
       </c>
       <c r="G130">
-        <v>2394535</v>
+        <v>1314345</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -10162,57 +10162,57 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C131">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E131">
-        <v>2491306</v>
+        <v>977870</v>
       </c>
       <c r="F131">
-        <v>65118</v>
+        <v>46838</v>
       </c>
       <c r="G131">
-        <v>2556424</v>
+        <v>1024708</v>
       </c>
       <c r="H131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C132">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E132">
-        <v>2604713</v>
+        <v>557598</v>
       </c>
       <c r="F132">
-        <v>67068</v>
+        <v>274704</v>
       </c>
       <c r="G132">
-        <v>2671781</v>
+        <v>832302</v>
       </c>
       <c r="H132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
@@ -10220,25 +10220,25 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C133">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E133">
-        <v>2817720</v>
+        <v>618166</v>
       </c>
       <c r="F133">
-        <v>73268</v>
+        <v>348689</v>
       </c>
       <c r="G133">
-        <v>2890988</v>
+        <v>966855</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -10248,84 +10248,84 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B134" s="3">
-        <v>381215360</v>
-      </c>
-      <c r="C134" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1992865</v>
-      </c>
-      <c r="F134" s="3">
-        <v>54673</v>
-      </c>
-      <c r="G134" s="3">
-        <v>2047538</v>
-      </c>
-      <c r="H134" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" s="3" t="b">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134">
+        <v>2019</v>
+      </c>
+      <c r="D134" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134">
+        <v>1133947</v>
+      </c>
+      <c r="F134">
+        <v>510895</v>
+      </c>
+      <c r="G134">
+        <v>1644842</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="3">
-        <v>381215360</v>
-      </c>
-      <c r="C135" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E135" s="3">
-        <v>2185641</v>
-      </c>
-      <c r="F135" s="3">
-        <v>63106</v>
-      </c>
-      <c r="G135" s="3">
-        <v>2248747</v>
-      </c>
-      <c r="H135" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="3" t="b">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135">
+        <v>2020</v>
+      </c>
+      <c r="D135" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135">
+        <v>1019097</v>
+      </c>
+      <c r="F135">
+        <v>51715</v>
+      </c>
+      <c r="G135">
+        <v>1070812</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C136">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E136">
-        <v>249731</v>
+        <v>1376021</v>
       </c>
       <c r="F136">
-        <v>30364</v>
+        <v>55215</v>
       </c>
       <c r="G136">
-        <v>280095</v>
+        <v>1431236</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -10336,25 +10336,25 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C137">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E137">
-        <v>759126</v>
+        <v>1437587</v>
       </c>
       <c r="F137">
-        <v>29267</v>
+        <v>50176</v>
       </c>
       <c r="G137">
-        <v>788393</v>
+        <v>1487763</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -10365,28 +10365,28 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C138">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E138">
-        <v>173534</v>
+        <v>1862500</v>
       </c>
       <c r="F138">
-        <v>8766</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>182300</v>
+        <v>1862500</v>
       </c>
       <c r="H138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
@@ -10394,28 +10394,28 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C139">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E139">
-        <v>202044</v>
+        <v>2329598</v>
       </c>
       <c r="F139">
-        <v>22432</v>
+        <v>64937</v>
       </c>
       <c r="G139">
-        <v>224476</v>
+        <v>2394535</v>
       </c>
       <c r="H139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -10423,57 +10423,57 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C140">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E140">
-        <v>196966</v>
+        <v>2491306</v>
       </c>
       <c r="F140">
-        <v>33739</v>
+        <v>65118</v>
       </c>
       <c r="G140">
-        <v>230705</v>
+        <v>2556424</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C141">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E141">
-        <v>190365</v>
+        <v>2604713</v>
       </c>
       <c r="F141">
-        <v>11451</v>
+        <v>67068</v>
       </c>
       <c r="G141">
-        <v>201816</v>
+        <v>2671781</v>
       </c>
       <c r="H141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
@@ -10481,170 +10481,170 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C142">
+        <v>2023</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142">
+        <v>2817720</v>
+      </c>
+      <c r="F142">
+        <v>73268</v>
+      </c>
+      <c r="G142">
+        <v>2890988</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="3">
+        <v>381215360</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1992865</v>
+      </c>
+      <c r="F143" s="3">
+        <v>54673</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2047538</v>
+      </c>
+      <c r="H143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="3">
+        <v>381215360</v>
+      </c>
+      <c r="C144" s="3">
         <v>2019</v>
       </c>
-      <c r="D142" t="s">
-        <v>74</v>
-      </c>
-      <c r="E142">
-        <v>184896</v>
-      </c>
-      <c r="F142">
-        <v>23292</v>
-      </c>
-      <c r="G142">
-        <v>208188</v>
-      </c>
-      <c r="H142" t="b">
-        <v>1</v>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143">
-        <v>2020</v>
-      </c>
-      <c r="D143" t="s">
-        <v>74</v>
-      </c>
-      <c r="E143">
-        <v>235250</v>
-      </c>
-      <c r="F143">
-        <v>26598</v>
-      </c>
-      <c r="G143">
-        <v>261848</v>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" t="s">
-        <v>70</v>
-      </c>
-      <c r="C144">
-        <v>2021</v>
-      </c>
-      <c r="D144" t="s">
-        <v>74</v>
-      </c>
-      <c r="E144">
-        <v>244757</v>
-      </c>
-      <c r="F144">
-        <v>23547</v>
-      </c>
-      <c r="G144">
-        <v>268304</v>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" t="b">
+      <c r="D144" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2185641</v>
+      </c>
+      <c r="F144" s="3">
+        <v>63106</v>
+      </c>
+      <c r="G144" s="3">
+        <v>2248747</v>
+      </c>
+      <c r="H144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145">
-        <v>2022</v>
-      </c>
-      <c r="D145" t="s">
-        <v>74</v>
-      </c>
-      <c r="E145">
-        <v>258804</v>
-      </c>
-      <c r="F145">
-        <v>32641</v>
-      </c>
-      <c r="G145">
-        <v>291445</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
+      <c r="A145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="7">
+        <v>381215360</v>
+      </c>
+      <c r="C145" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="7">
+        <v>1992865</v>
+      </c>
+      <c r="F145" s="7">
+        <v>54673</v>
+      </c>
+      <c r="G145" s="7">
+        <v>2047538</v>
+      </c>
+      <c r="H145" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" t="s">
-        <v>70</v>
-      </c>
-      <c r="C146">
-        <v>2023</v>
-      </c>
-      <c r="D146" t="s">
-        <v>74</v>
-      </c>
-      <c r="E146">
-        <v>283159</v>
-      </c>
-      <c r="F146">
-        <v>28270</v>
-      </c>
-      <c r="G146">
-        <v>311429</v>
-      </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
+      <c r="A146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="7">
+        <v>381215360</v>
+      </c>
+      <c r="C146" s="7">
+        <v>2019</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="7">
+        <v>2185641</v>
+      </c>
+      <c r="F146" s="7">
+        <v>63106</v>
+      </c>
+      <c r="G146" s="7">
+        <v>2248747</v>
+      </c>
+      <c r="H146" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C147">
         <v>2013</v>
       </c>
       <c r="D147" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E147">
-        <v>309618</v>
+        <v>249731</v>
       </c>
       <c r="F147">
-        <v>47261</v>
+        <v>30364</v>
       </c>
       <c r="G147">
-        <v>356879</v>
+        <v>280095</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -10655,25 +10655,25 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C148">
         <v>2014</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E148">
-        <v>404745</v>
+        <v>759126</v>
       </c>
       <c r="F148">
-        <v>48194</v>
+        <v>29267</v>
       </c>
       <c r="G148">
-        <v>452939</v>
+        <v>788393</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -10684,28 +10684,28 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C149">
         <v>2015</v>
       </c>
       <c r="D149" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E149">
-        <v>428215</v>
+        <v>173534</v>
       </c>
       <c r="F149">
-        <v>47819</v>
+        <v>8766</v>
       </c>
       <c r="G149">
-        <v>476034</v>
+        <v>182300</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -10713,28 +10713,28 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C150">
         <v>2016</v>
       </c>
       <c r="D150" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E150">
-        <v>423915</v>
+        <v>202044</v>
       </c>
       <c r="F150">
-        <v>47594</v>
+        <v>22432</v>
       </c>
       <c r="G150">
-        <v>471509</v>
+        <v>224476</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -10742,25 +10742,25 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C151">
         <v>2017</v>
       </c>
       <c r="D151" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E151">
-        <v>423240</v>
+        <v>196966</v>
       </c>
       <c r="F151">
-        <v>55841</v>
+        <v>33739</v>
       </c>
       <c r="G151">
-        <v>479081</v>
+        <v>230705</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -10771,57 +10771,57 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C152">
         <v>2018</v>
       </c>
       <c r="D152" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E152">
-        <v>537396</v>
+        <v>190365</v>
       </c>
       <c r="F152">
-        <v>78972</v>
+        <v>11451</v>
       </c>
       <c r="G152">
-        <v>616368</v>
+        <v>201816</v>
       </c>
       <c r="H152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C153">
         <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E153">
-        <v>481101</v>
+        <v>184896</v>
       </c>
       <c r="F153">
-        <v>64409</v>
+        <v>23292</v>
       </c>
       <c r="G153">
-        <v>545510</v>
+        <v>208188</v>
       </c>
       <c r="H153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -10829,25 +10829,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C154">
         <v>2020</v>
       </c>
       <c r="D154" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E154">
-        <v>903107</v>
+        <v>235250</v>
       </c>
       <c r="F154">
-        <v>45452</v>
+        <v>26598</v>
       </c>
       <c r="G154">
-        <v>948559</v>
+        <v>261848</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -10858,25 +10858,25 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C155">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E155">
-        <v>702589</v>
+        <v>244757</v>
       </c>
       <c r="F155">
-        <v>58369</v>
+        <v>23547</v>
       </c>
       <c r="G155">
-        <v>760958</v>
+        <v>268304</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -10887,25 +10887,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C156">
         <v>2022</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E156">
-        <v>696660</v>
+        <v>258804</v>
       </c>
       <c r="F156">
-        <v>54800</v>
+        <v>32641</v>
       </c>
       <c r="G156">
-        <v>751460</v>
+        <v>291445</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -10916,25 +10916,25 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C157">
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E157">
-        <v>874289</v>
+        <v>283159</v>
       </c>
       <c r="F157">
-        <v>55454</v>
+        <v>28270</v>
       </c>
       <c r="G157">
-        <v>929743</v>
+        <v>311429</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -10945,25 +10945,25 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C158">
         <v>2013</v>
       </c>
       <c r="D158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E158">
-        <v>551067</v>
+        <v>309618</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>47261</v>
       </c>
       <c r="G158">
-        <v>551067</v>
+        <v>356879</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -10974,25 +10974,25 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C159">
         <v>2014</v>
       </c>
       <c r="D159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E159">
-        <v>576045</v>
+        <v>404745</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>48194</v>
       </c>
       <c r="G159">
-        <v>576045</v>
+        <v>452939</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -11003,25 +11003,25 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C160">
         <v>2015</v>
       </c>
       <c r="D160" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E160">
-        <v>544442</v>
+        <v>428215</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>47819</v>
       </c>
       <c r="G160">
-        <v>544442</v>
+        <v>476034</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
@@ -11032,25 +11032,25 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C161">
         <v>2016</v>
       </c>
       <c r="D161" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E161">
-        <v>575149</v>
+        <v>423915</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>47594</v>
       </c>
       <c r="G161">
-        <v>575149</v>
+        <v>471509</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -11061,25 +11061,25 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C162">
         <v>2017</v>
       </c>
       <c r="D162" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E162">
-        <v>745530</v>
+        <v>423240</v>
       </c>
       <c r="F162">
-        <v>1657612</v>
+        <v>55841</v>
       </c>
       <c r="G162">
-        <v>2403142</v>
+        <v>479081</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -11090,83 +11090,83 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C163">
         <v>2018</v>
       </c>
       <c r="D163" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E163">
-        <v>799836</v>
+        <v>537396</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>78972</v>
       </c>
       <c r="G163">
-        <v>799836</v>
+        <v>616368</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
       </c>
       <c r="I163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C164">
         <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E164">
-        <v>870637</v>
+        <v>481101</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>64409</v>
       </c>
       <c r="G164">
-        <v>870637</v>
+        <v>545510</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C165">
         <v>2020</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E165">
-        <v>968966</v>
+        <v>903107</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>45452</v>
       </c>
       <c r="G165">
-        <v>968966</v>
+        <v>948559</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -11177,25 +11177,25 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C166">
         <v>2021</v>
       </c>
       <c r="D166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E166">
-        <v>998463</v>
+        <v>702589</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>58369</v>
       </c>
       <c r="G166">
-        <v>998463</v>
+        <v>760958</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
@@ -11206,28 +11206,28 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C167">
         <v>2022</v>
       </c>
       <c r="D167" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E167">
-        <v>999620</v>
+        <v>696660</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>54800</v>
       </c>
       <c r="G167">
-        <v>999620</v>
+        <v>751460</v>
       </c>
       <c r="H167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -11235,54 +11235,54 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C168">
         <v>2023</v>
       </c>
       <c r="D168" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E168">
-        <v>1125630</v>
+        <v>874289</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>55454</v>
       </c>
       <c r="G168">
-        <v>1125630</v>
+        <v>929743</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
       </c>
       <c r="I168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C169">
         <v>2013</v>
       </c>
       <c r="D169" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E169">
-        <v>269237</v>
+        <v>551067</v>
       </c>
       <c r="F169">
-        <v>56965</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>326202</v>
+        <v>551067</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
@@ -11293,25 +11293,25 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C170">
         <v>2014</v>
       </c>
       <c r="D170" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E170">
-        <v>292235</v>
+        <v>576045</v>
       </c>
       <c r="F170">
-        <v>63926</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>356161</v>
+        <v>576045</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -11322,25 +11322,25 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C171">
         <v>2015</v>
       </c>
       <c r="D171" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E171">
-        <v>311098</v>
+        <v>544442</v>
       </c>
       <c r="F171">
-        <v>70137</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>381235</v>
+        <v>544442</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -11351,25 +11351,25 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C172">
         <v>2016</v>
       </c>
       <c r="D172" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E172">
-        <v>336728</v>
+        <v>575149</v>
       </c>
       <c r="F172">
-        <v>73364</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>410092</v>
+        <v>575149</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -11380,25 +11380,25 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C173">
         <v>2017</v>
       </c>
       <c r="D173" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E173">
-        <v>357839</v>
+        <v>745530</v>
       </c>
       <c r="F173">
-        <v>64816</v>
+        <v>1657612</v>
       </c>
       <c r="G173">
-        <v>422655</v>
+        <v>2403142</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -11409,25 +11409,25 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C174">
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E174">
-        <v>374299</v>
+        <v>799836</v>
       </c>
       <c r="F174">
-        <v>70357</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>444656</v>
+        <v>799836</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -11438,54 +11438,54 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C175">
         <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E175">
-        <v>430886</v>
+        <v>870637</v>
       </c>
       <c r="F175">
-        <v>65876</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>496762</v>
+        <v>870637</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
       </c>
       <c r="I175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C176">
         <v>2020</v>
       </c>
       <c r="D176" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E176">
-        <v>432949</v>
+        <v>968966</v>
       </c>
       <c r="F176">
-        <v>82135</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>515084</v>
+        <v>968966</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -11496,57 +11496,57 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C177">
         <v>2021</v>
       </c>
       <c r="D177" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E177">
-        <v>354417</v>
+        <v>998463</v>
       </c>
       <c r="F177">
-        <v>50132</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>404549</v>
+        <v>998463</v>
       </c>
       <c r="H177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C178">
         <v>2022</v>
       </c>
       <c r="D178" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E178">
-        <v>884503</v>
+        <v>999620</v>
       </c>
       <c r="F178">
-        <v>51422</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>935925</v>
+        <v>999620</v>
       </c>
       <c r="H178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -11554,54 +11554,54 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C179">
         <v>2023</v>
       </c>
       <c r="D179" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E179">
-        <v>401078</v>
+        <v>1125630</v>
       </c>
       <c r="F179">
-        <v>69394</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>470472</v>
+        <v>1125630</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C180">
         <v>2013</v>
       </c>
       <c r="D180" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E180">
-        <v>919781</v>
+        <v>269237</v>
       </c>
       <c r="F180">
-        <v>32878</v>
+        <v>56965</v>
       </c>
       <c r="G180">
-        <v>952659</v>
+        <v>326202</v>
       </c>
       <c r="H180" t="b">
         <v>0</v>
@@ -11612,25 +11612,25 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C181">
         <v>2014</v>
       </c>
       <c r="D181" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E181">
-        <v>1029882</v>
+        <v>292235</v>
       </c>
       <c r="F181">
-        <v>29193</v>
+        <v>63926</v>
       </c>
       <c r="G181">
-        <v>1059075</v>
+        <v>356161</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -11641,25 +11641,25 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C182">
         <v>2015</v>
       </c>
       <c r="D182" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E182">
-        <v>625863</v>
+        <v>311098</v>
       </c>
       <c r="F182">
-        <v>565472</v>
+        <v>70137</v>
       </c>
       <c r="G182">
-        <v>1191335</v>
+        <v>381235</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -11670,54 +11670,54 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C183">
         <v>2016</v>
       </c>
       <c r="D183" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E183">
-        <v>748026</v>
+        <v>336728</v>
       </c>
       <c r="F183">
-        <v>607273</v>
+        <v>73364</v>
       </c>
       <c r="G183">
-        <v>1355299</v>
+        <v>410092</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C184">
         <v>2017</v>
       </c>
       <c r="D184" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E184">
-        <v>457381</v>
+        <v>357839</v>
       </c>
       <c r="F184">
-        <v>24402</v>
+        <v>64816</v>
       </c>
       <c r="G184">
-        <v>481783</v>
+        <v>422655</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -11728,28 +11728,28 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C185">
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E185">
-        <v>621238</v>
+        <v>374299</v>
       </c>
       <c r="F185">
-        <v>504960</v>
+        <v>70357</v>
       </c>
       <c r="G185">
-        <v>1126198</v>
+        <v>444656</v>
       </c>
       <c r="H185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -11757,25 +11757,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C186">
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E186">
-        <v>677270</v>
+        <v>430886</v>
       </c>
       <c r="F186">
-        <v>750138</v>
+        <v>65876</v>
       </c>
       <c r="G186">
-        <v>1427408</v>
+        <v>496762</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -11786,25 +11786,25 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C187">
         <v>2020</v>
       </c>
       <c r="D187" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E187">
-        <v>761291</v>
+        <v>432949</v>
       </c>
       <c r="F187">
-        <v>928646</v>
+        <v>82135</v>
       </c>
       <c r="G187">
-        <v>1689937</v>
+        <v>515084</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -11815,112 +11815,112 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C188">
         <v>2021</v>
       </c>
       <c r="D188" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E188">
-        <v>986318</v>
+        <v>354417</v>
       </c>
       <c r="F188">
-        <v>960172</v>
+        <v>50132</v>
       </c>
       <c r="G188">
-        <v>1946490</v>
+        <v>404549</v>
       </c>
       <c r="H188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C189">
         <v>2022</v>
       </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E189">
-        <v>1312772</v>
+        <v>884503</v>
       </c>
       <c r="F189">
-        <v>722659</v>
+        <v>51422</v>
       </c>
       <c r="G189">
-        <v>2035431</v>
+        <v>935925</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
       </c>
       <c r="I189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C190">
         <v>2023</v>
       </c>
       <c r="D190" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E190">
-        <v>1060776</v>
+        <v>401078</v>
       </c>
       <c r="F190">
-        <v>747475</v>
+        <v>69394</v>
       </c>
       <c r="G190">
-        <v>1808251</v>
+        <v>470472</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
       </c>
       <c r="I190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C191">
         <v>2013</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E191">
-        <v>1594322</v>
+        <v>919781</v>
       </c>
       <c r="F191">
-        <v>64917</v>
+        <v>32878</v>
       </c>
       <c r="G191">
-        <v>1659239</v>
+        <v>952659</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -11931,25 +11931,25 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C192">
         <v>2014</v>
       </c>
       <c r="D192" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E192">
-        <v>1615634</v>
+        <v>1029882</v>
       </c>
       <c r="F192">
-        <v>67647</v>
+        <v>29193</v>
       </c>
       <c r="G192">
-        <v>1683281</v>
+        <v>1059075</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -11960,25 +11960,25 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C193">
         <v>2015</v>
       </c>
       <c r="D193" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E193">
-        <v>1644255</v>
+        <v>625863</v>
       </c>
       <c r="F193">
-        <v>126066</v>
+        <v>565472</v>
       </c>
       <c r="G193">
-        <v>1770321</v>
+        <v>1191335</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -11989,54 +11989,54 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C194">
         <v>2016</v>
       </c>
       <c r="D194" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E194">
-        <v>1116310</v>
+        <v>748026</v>
       </c>
       <c r="F194">
-        <v>46355</v>
+        <v>607273</v>
       </c>
       <c r="G194">
-        <v>1162665</v>
+        <v>1355299</v>
       </c>
       <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="b">
         <v>1</v>
-      </c>
-      <c r="I194" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C195">
         <v>2017</v>
       </c>
       <c r="D195" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E195">
-        <v>1241174</v>
+        <v>457381</v>
       </c>
       <c r="F195">
-        <v>60060</v>
+        <v>24402</v>
       </c>
       <c r="G195">
-        <v>1301234</v>
+        <v>481783</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -12047,25 +12047,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C196">
         <v>2018</v>
       </c>
       <c r="D196" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E196">
-        <v>752384</v>
+        <v>621238</v>
       </c>
       <c r="F196">
-        <v>564639</v>
+        <v>504960</v>
       </c>
       <c r="G196">
-        <v>1317023</v>
+        <v>1126198</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -12076,54 +12076,54 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C197">
         <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E197">
-        <v>1277519</v>
+        <v>677270</v>
       </c>
       <c r="F197">
-        <v>588146</v>
+        <v>750138</v>
       </c>
       <c r="G197">
-        <v>1865665</v>
+        <v>1427408</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C198">
         <v>2020</v>
       </c>
       <c r="D198" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E198">
-        <v>1333310</v>
+        <v>761291</v>
       </c>
       <c r="F198">
-        <v>581712</v>
+        <v>928646</v>
       </c>
       <c r="G198">
-        <v>1915022</v>
+        <v>1689937</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -12134,25 +12134,25 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B199" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C199">
         <v>2021</v>
       </c>
       <c r="D199" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E199">
-        <v>1401973</v>
+        <v>986318</v>
       </c>
       <c r="F199">
-        <v>582133</v>
+        <v>960172</v>
       </c>
       <c r="G199">
-        <v>1984106</v>
+        <v>1946490</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -12163,54 +12163,54 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C200">
         <v>2022</v>
       </c>
       <c r="D200" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E200">
-        <v>1430828</v>
+        <v>1312772</v>
       </c>
       <c r="F200">
-        <v>275637</v>
+        <v>722659</v>
       </c>
       <c r="G200">
-        <v>1706465</v>
+        <v>2035431</v>
       </c>
       <c r="H200" t="b">
         <v>0</v>
       </c>
       <c r="I200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C201">
         <v>2023</v>
       </c>
       <c r="D201" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E201">
-        <v>3850579</v>
+        <v>1060776</v>
       </c>
       <c r="F201">
-        <v>151274</v>
+        <v>747475</v>
       </c>
       <c r="G201">
-        <v>4001853</v>
+        <v>1808251</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -12221,25 +12221,25 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C202">
         <v>2013</v>
       </c>
       <c r="D202" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E202">
-        <v>570912</v>
+        <v>1594322</v>
       </c>
       <c r="F202">
-        <v>28746</v>
+        <v>64917</v>
       </c>
       <c r="G202">
-        <v>599658</v>
+        <v>1659239</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -12250,25 +12250,25 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C203">
         <v>2014</v>
       </c>
       <c r="D203" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E203">
-        <v>684453</v>
+        <v>1615634</v>
       </c>
       <c r="F203">
-        <v>28799</v>
+        <v>67647</v>
       </c>
       <c r="G203">
-        <v>713252</v>
+        <v>1683281</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -12279,25 +12279,25 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C204">
         <v>2015</v>
       </c>
       <c r="D204" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E204">
-        <v>768136</v>
+        <v>1644255</v>
       </c>
       <c r="F204">
-        <v>29802</v>
+        <v>126066</v>
       </c>
       <c r="G204">
-        <v>797938</v>
+        <v>1770321</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -12308,28 +12308,28 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C205">
         <v>2016</v>
       </c>
       <c r="D205" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E205">
-        <v>872358</v>
+        <v>1116310</v>
       </c>
       <c r="F205">
-        <v>41118</v>
+        <v>46355</v>
       </c>
       <c r="G205">
-        <v>913476</v>
+        <v>1162665</v>
       </c>
       <c r="H205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
@@ -12337,25 +12337,25 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B206" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C206">
         <v>2017</v>
       </c>
       <c r="D206" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E206">
-        <v>790841</v>
+        <v>1241174</v>
       </c>
       <c r="F206">
-        <v>33483</v>
+        <v>60060</v>
       </c>
       <c r="G206">
-        <v>824324</v>
+        <v>1301234</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -12366,25 +12366,25 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C207">
         <v>2018</v>
       </c>
       <c r="D207" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E207">
-        <v>791564</v>
+        <v>752384</v>
       </c>
       <c r="F207">
-        <v>16550</v>
+        <v>564639</v>
       </c>
       <c r="G207">
-        <v>808114</v>
+        <v>1317023</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -12395,25 +12395,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B208" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C208">
         <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E208">
-        <v>1031369</v>
+        <v>1277519</v>
       </c>
       <c r="F208">
-        <v>31599</v>
+        <v>588146</v>
       </c>
       <c r="G208">
-        <v>1062968</v>
+        <v>1865665</v>
       </c>
       <c r="H208" t="b">
         <v>0</v>
@@ -12424,25 +12424,25 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C209">
         <v>2020</v>
       </c>
       <c r="D209" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E209">
-        <v>1623241</v>
+        <v>1333310</v>
       </c>
       <c r="F209">
-        <v>35287</v>
+        <v>581712</v>
       </c>
       <c r="G209">
-        <v>1658528</v>
+        <v>1915022</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -12453,25 +12453,25 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B210" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C210">
         <v>2021</v>
       </c>
       <c r="D210" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E210">
-        <v>1775069</v>
+        <v>1401973</v>
       </c>
       <c r="F210">
-        <v>38332</v>
+        <v>582133</v>
       </c>
       <c r="G210">
-        <v>1813401</v>
+        <v>1984106</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -12482,54 +12482,54 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B211" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C211">
         <v>2022</v>
       </c>
       <c r="D211" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E211">
-        <v>2098523</v>
+        <v>1430828</v>
       </c>
       <c r="F211">
-        <v>45591</v>
+        <v>275637</v>
       </c>
       <c r="G211">
-        <v>2144114</v>
+        <v>1706465</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
       </c>
       <c r="I211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C212">
         <v>2023</v>
       </c>
       <c r="D212" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E212">
-        <v>2150560</v>
+        <v>3850579</v>
       </c>
       <c r="F212">
-        <v>48371</v>
+        <v>151274</v>
       </c>
       <c r="G212">
-        <v>2198931</v>
+        <v>4001853</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -12540,25 +12540,25 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C213">
         <v>2013</v>
       </c>
       <c r="D213" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E213">
-        <v>529061</v>
+        <v>570912</v>
       </c>
       <c r="F213">
-        <v>404716</v>
+        <v>28746</v>
       </c>
       <c r="G213">
-        <v>933777</v>
+        <v>599658</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -12569,25 +12569,25 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C214">
         <v>2014</v>
       </c>
       <c r="D214" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E214">
-        <v>540482</v>
+        <v>684453</v>
       </c>
       <c r="F214">
-        <v>434642</v>
+        <v>28799</v>
       </c>
       <c r="G214">
-        <v>975124</v>
+        <v>713252</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -12598,25 +12598,25 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C215">
         <v>2015</v>
       </c>
       <c r="D215" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E215">
-        <v>641010</v>
+        <v>768136</v>
       </c>
       <c r="F215">
-        <v>457743</v>
+        <v>29802</v>
       </c>
       <c r="G215">
-        <v>1098753</v>
+        <v>797938</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -12627,25 +12627,25 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C216">
         <v>2016</v>
       </c>
       <c r="D216" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E216">
-        <v>927712</v>
+        <v>872358</v>
       </c>
       <c r="F216">
-        <v>1867969</v>
+        <v>41118</v>
       </c>
       <c r="G216">
-        <v>2795681</v>
+        <v>913476</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -12656,25 +12656,25 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C217">
         <v>2017</v>
       </c>
       <c r="D217" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E217">
-        <v>1036376</v>
+        <v>790841</v>
       </c>
       <c r="F217">
-        <v>565996</v>
+        <v>33483</v>
       </c>
       <c r="G217">
-        <v>1602372</v>
+        <v>824324</v>
       </c>
       <c r="H217" t="b">
         <v>0</v>
@@ -12685,28 +12685,28 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C218">
         <v>2018</v>
       </c>
       <c r="D218" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E218">
-        <v>1130881</v>
+        <v>791564</v>
       </c>
       <c r="F218">
-        <v>891666</v>
+        <v>16550</v>
       </c>
       <c r="G218">
-        <v>2022547</v>
+        <v>808114</v>
       </c>
       <c r="H218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="b">
         <v>0</v>
@@ -12714,469 +12714,472 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C219">
         <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E219">
-        <v>3935914</v>
+        <v>1031369</v>
       </c>
       <c r="F219">
-        <v>895344</v>
+        <v>31599</v>
       </c>
       <c r="G219">
-        <v>4831258</v>
+        <v>1062968</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
       </c>
       <c r="I219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C220">
         <v>2020</v>
       </c>
       <c r="D220" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E220">
-        <v>1522702</v>
+        <v>1623241</v>
       </c>
       <c r="F220">
-        <v>1182520</v>
+        <v>35287</v>
       </c>
       <c r="G220">
-        <v>2705222</v>
+        <v>1658528</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
       </c>
       <c r="I220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C221">
         <v>2021</v>
       </c>
       <c r="D221" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E221">
-        <v>7244242</v>
+        <v>1775069</v>
       </c>
       <c r="F221">
-        <v>2150157</v>
+        <v>38332</v>
       </c>
       <c r="G221">
-        <v>9394399</v>
+        <v>1813401</v>
       </c>
       <c r="H221" t="b">
         <v>0</v>
       </c>
       <c r="I221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C222">
         <v>2022</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E222">
-        <v>1728871</v>
+        <v>2098523</v>
       </c>
       <c r="F222">
-        <v>1522507</v>
+        <v>45591</v>
       </c>
       <c r="G222">
-        <v>3251378</v>
+        <v>2144114</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
       </c>
       <c r="I222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C223">
         <v>2023</v>
       </c>
       <c r="D223" t="s">
+        <v>92</v>
+      </c>
+      <c r="E223">
+        <v>2150560</v>
+      </c>
+      <c r="F223">
+        <v>48371</v>
+      </c>
+      <c r="G223">
+        <v>2198931</v>
+      </c>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
+      <c r="I223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224">
+        <v>2013</v>
+      </c>
+      <c r="D224" t="s">
         <v>94</v>
       </c>
-      <c r="E223">
+      <c r="E224">
+        <v>529061</v>
+      </c>
+      <c r="F224">
+        <v>404716</v>
+      </c>
+      <c r="G224">
+        <v>933777</v>
+      </c>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+      <c r="I224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225">
+        <v>2014</v>
+      </c>
+      <c r="D225" t="s">
+        <v>94</v>
+      </c>
+      <c r="E225">
+        <v>540482</v>
+      </c>
+      <c r="F225">
+        <v>434642</v>
+      </c>
+      <c r="G225">
+        <v>975124</v>
+      </c>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+      <c r="I225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226">
+        <v>2015</v>
+      </c>
+      <c r="D226" t="s">
+        <v>94</v>
+      </c>
+      <c r="E226">
+        <v>641010</v>
+      </c>
+      <c r="F226">
+        <v>457743</v>
+      </c>
+      <c r="G226">
+        <v>1098753</v>
+      </c>
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
+      <c r="I226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227">
+        <v>2016</v>
+      </c>
+      <c r="D227" t="s">
+        <v>94</v>
+      </c>
+      <c r="E227">
+        <v>927712</v>
+      </c>
+      <c r="F227">
+        <v>1867969</v>
+      </c>
+      <c r="G227">
+        <v>2795681</v>
+      </c>
+      <c r="H227" t="b">
+        <v>0</v>
+      </c>
+      <c r="I227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>93</v>
+      </c>
+      <c r="C228">
+        <v>2017</v>
+      </c>
+      <c r="D228" t="s">
+        <v>94</v>
+      </c>
+      <c r="E228">
+        <v>1036376</v>
+      </c>
+      <c r="F228">
+        <v>565996</v>
+      </c>
+      <c r="G228">
+        <v>1602372</v>
+      </c>
+      <c r="H228" t="b">
+        <v>0</v>
+      </c>
+      <c r="I228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229">
+        <v>2018</v>
+      </c>
+      <c r="D229" t="s">
+        <v>94</v>
+      </c>
+      <c r="E229">
+        <v>1130881</v>
+      </c>
+      <c r="F229">
+        <v>891666</v>
+      </c>
+      <c r="G229">
+        <v>2022547</v>
+      </c>
+      <c r="H229" t="b">
+        <v>0</v>
+      </c>
+      <c r="I229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230">
+        <v>2019</v>
+      </c>
+      <c r="D230" t="s">
+        <v>94</v>
+      </c>
+      <c r="E230">
+        <v>3935914</v>
+      </c>
+      <c r="F230">
+        <v>895344</v>
+      </c>
+      <c r="G230">
+        <v>4831258</v>
+      </c>
+      <c r="H230" t="b">
+        <v>0</v>
+      </c>
+      <c r="I230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>93</v>
+      </c>
+      <c r="C231">
+        <v>2020</v>
+      </c>
+      <c r="D231" t="s">
+        <v>94</v>
+      </c>
+      <c r="E231">
+        <v>1522702</v>
+      </c>
+      <c r="F231">
+        <v>1182520</v>
+      </c>
+      <c r="G231">
+        <v>2705222</v>
+      </c>
+      <c r="H231" t="b">
+        <v>0</v>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232">
+        <v>2021</v>
+      </c>
+      <c r="D232" t="s">
+        <v>94</v>
+      </c>
+      <c r="E232">
+        <v>7244242</v>
+      </c>
+      <c r="F232">
+        <v>2150157</v>
+      </c>
+      <c r="G232">
+        <v>9394399</v>
+      </c>
+      <c r="H232" t="b">
+        <v>0</v>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" t="s">
+        <v>93</v>
+      </c>
+      <c r="C233">
+        <v>2022</v>
+      </c>
+      <c r="D233" t="s">
+        <v>94</v>
+      </c>
+      <c r="E233">
+        <v>1728871</v>
+      </c>
+      <c r="F233">
+        <v>1522507</v>
+      </c>
+      <c r="G233">
+        <v>3251378</v>
+      </c>
+      <c r="H233" t="b">
+        <v>0</v>
+      </c>
+      <c r="I233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>93</v>
+      </c>
+      <c r="C234">
+        <v>2023</v>
+      </c>
+      <c r="D234" t="s">
+        <v>94</v>
+      </c>
+      <c r="E234">
         <v>1926651</v>
       </c>
-      <c r="F223">
+      <c r="F234">
         <v>1835915</v>
       </c>
-      <c r="G223">
+      <c r="G234">
         <v>3762566</v>
       </c>
-      <c r="H223" t="b">
-        <v>0</v>
-      </c>
-      <c r="I223" t="b">
+      <c r="H234" t="b">
+        <v>0</v>
+      </c>
+      <c r="I234" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A224" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B224" s="7">
-        <v>590729366</v>
-      </c>
-      <c r="C224" s="7">
-        <v>2010</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E224" s="7">
-        <v>425969</v>
-      </c>
-      <c r="F224" s="7">
-        <v>427041</v>
-      </c>
-      <c r="G224" s="7">
-        <v>853010</v>
-      </c>
-      <c r="H224" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I224" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A225" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B225" s="7">
-        <v>590729366</v>
-      </c>
-      <c r="C225" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E225" s="7">
-        <v>519524</v>
-      </c>
-      <c r="F225" s="7">
-        <v>41744</v>
-      </c>
-      <c r="G225" s="7">
-        <v>561268</v>
-      </c>
-      <c r="H225" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I225" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A226" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B226" s="7">
-        <v>590729366</v>
-      </c>
-      <c r="C226" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E226" s="7">
-        <v>515075</v>
-      </c>
-      <c r="F226" s="7">
-        <v>80004</v>
-      </c>
-      <c r="G226" s="7">
-        <v>595079</v>
-      </c>
-      <c r="H226" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I226" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A227" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B227" s="7">
-        <v>350978599</v>
-      </c>
-      <c r="C227" s="7">
-        <v>2016</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E227" s="7">
-        <v>148892</v>
-      </c>
-      <c r="F227" s="7">
-        <v>73601</v>
-      </c>
-      <c r="G227" s="7">
-        <v>222493</v>
-      </c>
-      <c r="H227" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I227" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A228" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B228" s="7">
-        <v>590687423</v>
-      </c>
-      <c r="C228" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E228" s="7">
-        <v>285375</v>
-      </c>
-      <c r="F228" s="7">
-        <v>35284</v>
-      </c>
-      <c r="G228" s="7">
-        <v>320659</v>
-      </c>
-      <c r="H228" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I228" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A229" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B229" s="7">
-        <v>590687423</v>
-      </c>
-      <c r="C229" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E229" s="7">
-        <v>348517</v>
-      </c>
-      <c r="F229" s="7">
-        <v>38207</v>
-      </c>
-      <c r="G229" s="7">
-        <v>386724</v>
-      </c>
-      <c r="H229" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I229" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A230" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B230" s="7">
-        <v>580960142</v>
-      </c>
-      <c r="C230" s="7">
-        <v>2011</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E230" s="7">
-        <v>232744</v>
-      </c>
-      <c r="F230" s="7">
-        <v>22325</v>
-      </c>
-      <c r="G230" s="7">
-        <v>255069</v>
-      </c>
-      <c r="H230" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I230" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A231" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B231" s="7">
-        <v>580960142</v>
-      </c>
-      <c r="C231" s="7">
-        <v>2012</v>
-      </c>
-      <c r="D231" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E231" s="7">
-        <v>495000</v>
-      </c>
-      <c r="F231" s="7">
-        <v>72723</v>
-      </c>
-      <c r="G231" s="7">
-        <v>567723</v>
-      </c>
-      <c r="H231" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I231" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A232" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B232" s="7">
-        <v>420804594</v>
-      </c>
-      <c r="C232" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E232" s="7">
-        <v>1232889</v>
-      </c>
-      <c r="F232" s="7">
-        <v>38027</v>
-      </c>
-      <c r="G232" s="7">
-        <v>1270916</v>
-      </c>
-      <c r="H232" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I232" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A233" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" s="7">
-        <v>381215360</v>
-      </c>
-      <c r="C233" s="7">
-        <v>2018</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E233" s="7">
-        <v>1992865</v>
-      </c>
-      <c r="F233" s="7">
-        <v>54673</v>
-      </c>
-      <c r="G233" s="7">
-        <v>2047538</v>
-      </c>
-      <c r="H233" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I233" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A234" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" s="7">
-        <v>381215360</v>
-      </c>
-      <c r="C234" s="7">
-        <v>2019</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E234" s="7">
-        <v>2185641</v>
-      </c>
-      <c r="F234" s="7">
-        <v>63106</v>
-      </c>
-      <c r="G234" s="7">
-        <v>2248747</v>
-      </c>
-      <c r="H234" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I234" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I234">
+    <sortCondition ref="A202:A234"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
